--- a/formshare/tests/resources/forms/complex_form/B.xlsx
+++ b/formshare/tests/resources/forms/complex_form/B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1195">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -3764,6 +3764,9 @@
   </si>
   <si>
     <t xml:space="preserve">default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Sequia_LB_20190123</t>
@@ -5174,7 +5177,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -8981,7 +8984,7 @@
       <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="25.6"/>
@@ -14838,11 +14841,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="173" zoomScaleNormal="173" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.23"/>
@@ -14860,19 +14863,23 @@
       <c r="C1" s="188" t="s">
         <v>1190</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="32" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D2" s="32"/>
+        <v>1194</v>
+      </c>
+      <c r="D2" s="32" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
